--- a/data/trans_dic/P1402-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1402-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1005497566223109</v>
+        <v>0.1010437726139925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.15043161526898</v>
+        <v>0.1495828932446561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1711484405350334</v>
+        <v>0.1713008508502391</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1594994568229496</v>
+        <v>0.1598140981302207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1232600243115449</v>
+        <v>0.1250830662840444</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1638939000007831</v>
+        <v>0.1622794669848256</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1711546298826562</v>
+        <v>0.1729176933538825</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.19024143788259</v>
+        <v>0.1868932978548379</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1186927566396425</v>
+        <v>0.1184447070192978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1647297004482892</v>
+        <v>0.1645210659204789</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1790101713888225</v>
+        <v>0.1771174361295761</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1834977673632515</v>
+        <v>0.1819204759232312</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1406302879689306</v>
+        <v>0.1387765517927571</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2007168757180041</v>
+        <v>0.2045844506640723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2247364973073628</v>
+        <v>0.2272104760559247</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2151282020189899</v>
+        <v>0.2156584403042251</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1615120315445439</v>
+        <v>0.1622928127514298</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2049825425527284</v>
+        <v>0.206011016746171</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2270285650004369</v>
+        <v>0.2252678073160459</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2315461785480099</v>
+        <v>0.2294978134344812</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1471706846777458</v>
+        <v>0.1460930830759863</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1954519207242497</v>
+        <v>0.1947335045009561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.215331062014926</v>
+        <v>0.21669965573637</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2165557980016853</v>
+        <v>0.2165383494270539</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.05974475528170609</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07629485829116617</v>
+        <v>0.07629485829116618</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02075661453618084</v>
@@ -821,7 +821,7 @@
         <v>0.04308808156306927</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.04558221249399062</v>
+        <v>0.04558221249399061</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02548455756849051</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02230276613367586</v>
+        <v>0.02298755329601589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03004126748159338</v>
+        <v>0.02972610998803886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04966408183284034</v>
+        <v>0.04919217124278404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06675709847112277</v>
+        <v>0.06707684633611991</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01431838373159681</v>
+        <v>0.01422153147059352</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0230840249299976</v>
+        <v>0.02289803950745595</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03391759304196869</v>
+        <v>0.03411218383186799</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03881550510811566</v>
+        <v>0.03917124761501607</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.021049999809927</v>
+        <v>0.02036024407200511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02901345651485037</v>
+        <v>0.02864469674820075</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04430412257820639</v>
+        <v>0.04475743187827895</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05442429156535283</v>
+        <v>0.05525981709361987</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03796963801377452</v>
+        <v>0.03883796764896823</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0467476296173981</v>
+        <v>0.04703408477891471</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07134329307247395</v>
+        <v>0.07040132939219106</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08736909093126087</v>
+        <v>0.08817782408105286</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02930117495550681</v>
+        <v>0.02846828423583822</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04013548073519027</v>
+        <v>0.04032905513774029</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05384073745531486</v>
+        <v>0.05409938745155736</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05207242729231083</v>
+        <v>0.052896833522137</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0316775517125165</v>
+        <v>0.03156581670529901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04069389392008376</v>
+        <v>0.04108209121343784</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05917241282132034</v>
+        <v>0.05973938828370019</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06717844298105261</v>
+        <v>0.06782057826387376</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04352831961511375</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06982319450823622</v>
+        <v>0.06982319450823621</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01769645456993704</v>
@@ -969,7 +969,7 @@
         <v>0.03512577442702367</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04901071949293061</v>
+        <v>0.04901071949293059</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01242610888953781</v>
+        <v>0.01155989536217113</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01412093889418839</v>
+        <v>0.0143502391965363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0275888596322382</v>
+        <v>0.02721743980287004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05243887744369295</v>
+        <v>0.05321665774964029</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008254627555228482</v>
+        <v>0.008175518745461749</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006240043143243454</v>
+        <v>0.006236583670390543</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01569325543497028</v>
+        <v>0.01434373818109357</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01928593710735209</v>
+        <v>0.02057953715215347</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01299084146593581</v>
+        <v>0.01300084727884723</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01227900289274489</v>
+        <v>0.01215791935913626</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02432331030204263</v>
+        <v>0.02469707778234071</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0383368181790757</v>
+        <v>0.03949487951646818</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03810348138259625</v>
+        <v>0.03819195886973293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04992530017075209</v>
+        <v>0.05018848994369281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06687609458685238</v>
+        <v>0.07105647799810064</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09147860600444513</v>
+        <v>0.09255965407935533</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03323996469732572</v>
+        <v>0.03335127945276721</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03373700291645946</v>
+        <v>0.03287849484265751</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04431297835747543</v>
+        <v>0.0442816849488601</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03880903054320525</v>
+        <v>0.03963428875077565</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03046387890499901</v>
+        <v>0.03153035914590434</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03389175950165365</v>
+        <v>0.03412827585076235</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04723893859759518</v>
+        <v>0.04905932986878182</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06048859402530067</v>
+        <v>0.06098499085673755</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.08413660463101136</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07817069605525745</v>
+        <v>0.07817069605525746</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06230946674902334</v>
@@ -1105,7 +1105,7 @@
         <v>0.08596995227037744</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08547944896796683</v>
+        <v>0.08547944896796682</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04904478669066011</v>
+        <v>0.04884733477686531</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06666927244195542</v>
+        <v>0.06593586890879882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07928371066161409</v>
+        <v>0.07818699488312145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08409443355026354</v>
+        <v>0.08520783537360677</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05892199514737954</v>
+        <v>0.06008963272503545</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07652837177458242</v>
+        <v>0.07688171668345188</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07529424946063908</v>
+        <v>0.07510802928692097</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07144664688481826</v>
+        <v>0.07226905350724146</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05675342425149913</v>
+        <v>0.05686898820639158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07394452674735874</v>
+        <v>0.07495950067921935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07849513676562513</v>
+        <v>0.07971245260744959</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07981740510833128</v>
+        <v>0.07947667600708239</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06412182870453942</v>
+        <v>0.06453295157741136</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08457191633751696</v>
+        <v>0.08445027157381081</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09883921803799435</v>
+        <v>0.0972122363175911</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1026215216757456</v>
+        <v>0.1023091377282614</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07662068985245554</v>
+        <v>0.0770563981645089</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0955845514044041</v>
+        <v>0.09592458084706153</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09470808566819272</v>
+        <v>0.09455616313958594</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08459480617849917</v>
+        <v>0.08537252325300092</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06864164931140564</v>
+        <v>0.06825822408767634</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08730115335134561</v>
+        <v>0.08793359572244693</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09320607053858453</v>
+        <v>0.0930910635333792</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09056759127192228</v>
+        <v>0.09072688093686883</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>103739</v>
+        <v>104249</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>146617</v>
+        <v>145790</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>129105</v>
+        <v>129220</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>91860</v>
+        <v>92041</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>162101</v>
+        <v>164498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>219257</v>
+        <v>217097</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>170241</v>
+        <v>171994</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>156117</v>
+        <v>153370</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>278552</v>
+        <v>277970</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>380928</v>
+        <v>380445</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>313090</v>
+        <v>309780</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>256265</v>
+        <v>254062</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>145092</v>
+        <v>143179</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>195627</v>
+        <v>199397</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>169529</v>
+        <v>171396</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>123898</v>
+        <v>124203</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>212407</v>
+        <v>213433</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>274225</v>
+        <v>275601</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>225816</v>
+        <v>224065</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>190013</v>
+        <v>188332</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>345385</v>
+        <v>342856</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>451971</v>
+        <v>450310</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>376616</v>
+        <v>379009</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>302432</v>
+        <v>302407</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37768</v>
+        <v>38927</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>59000</v>
+        <v>58381</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>103122</v>
+        <v>102142</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>148553</v>
+        <v>149265</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22733</v>
+        <v>22579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>40503</v>
+        <v>40177</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>67438</v>
+        <v>67825</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>84190</v>
+        <v>84961</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>69067</v>
+        <v>66804</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>107888</v>
+        <v>106517</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>180082</v>
+        <v>181925</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>239154</v>
+        <v>242825</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64298</v>
+        <v>65769</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>91810</v>
+        <v>92373</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>148136</v>
+        <v>146180</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>194421</v>
+        <v>196220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46521</v>
+        <v>45198</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70421</v>
+        <v>70761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>107052</v>
+        <v>107566</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>112944</v>
+        <v>114732</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>103937</v>
+        <v>103570</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>151322</v>
+        <v>152766</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>240517</v>
+        <v>242822</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>295199</v>
+        <v>298021</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6852</v>
+        <v>6374</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6795</v>
+        <v>6905</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15088</v>
+        <v>14885</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>37315</v>
+        <v>37868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3933</v>
+        <v>3895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8618</v>
+        <v>7877</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14173</v>
+        <v>15123</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13352</v>
+        <v>13363</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11540</v>
+        <v>11426</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26659</v>
+        <v>27069</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55453</v>
+        <v>57128</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21011</v>
+        <v>21059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24023</v>
+        <v>24150</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36574</v>
+        <v>38860</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>65095</v>
+        <v>65864</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15836</v>
+        <v>15889</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15473</v>
+        <v>15079</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24334</v>
+        <v>24317</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28520</v>
+        <v>29126</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31311</v>
+        <v>32408</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31852</v>
+        <v>32074</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>51775</v>
+        <v>53770</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>87495</v>
+        <v>88213</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>160697</v>
+        <v>160050</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>227994</v>
+        <v>225486</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>267790</v>
+        <v>264086</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>295406</v>
+        <v>299317</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>199109</v>
+        <v>203055</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>271754</v>
+        <v>273009</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>265947</v>
+        <v>265289</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>266101</v>
+        <v>269164</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>377736</v>
+        <v>378505</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>515453</v>
+        <v>522528</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>542379</v>
+        <v>550791</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>577660</v>
+        <v>575194</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>210098</v>
+        <v>211445</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>289218</v>
+        <v>288802</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>333841</v>
+        <v>328346</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>360488</v>
+        <v>359391</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>258916</v>
+        <v>260389</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>339423</v>
+        <v>340630</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>334518</v>
+        <v>333982</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>315071</v>
+        <v>317968</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>456861</v>
+        <v>454309</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>608559</v>
+        <v>612968</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>644028</v>
+        <v>643233</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>655462</v>
+        <v>656615</v>
       </c>
     </row>
     <row r="20">
